--- a/travelingSalesMan/data/dqm_gr17_5sec.xlsx
+++ b/travelingSalesMan/data/dqm_gr17_5sec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,17 +469,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[15, 10, 8, 3, 12, 16, 0, 1, 9, 2, 4, 14, 13, 5, 6, 7, 11]</t>
+          <t>[9, 10, 3, 8, 1, 6, 13, 11, 4, 2, 7, 16, 5, 15, 12, 0, 14]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3549</v>
+        <v>4367</v>
       </c>
       <c r="E2" t="n">
-        <v>-1464</v>
+        <v>-2282</v>
       </c>
       <c r="F2" t="n">
-        <v>-13504.72483221476</v>
+        <v>-13482.76510067114</v>
       </c>
     </row>
     <row r="3">
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[11, 4, 5, 1, 15, 16, 12, 3, 0, 7, 6, 14, 2, 13, 9, 10, 8]</t>
+          <t>[10, 11, 1, 2, 6, 8, 15, 14, 12, 5, 3, 0, 7, 9, 13, 16, 4]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3864</v>
+        <v>4398</v>
       </c>
       <c r="E3" t="n">
-        <v>-1779</v>
+        <v>-2313</v>
       </c>
       <c r="F3" t="n">
-        <v>-13496.26845637584</v>
+        <v>-13481.93288590604</v>
       </c>
     </row>
     <row r="4">
@@ -513,17 +513,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[11, 4, 5, 1, 15, 16, 12, 3, 0, 7, 6, 14, 2, 13, 9, 10, 8]</t>
+          <t>[10, 11, 1, 2, 6, 8, 15, 14, 12, 5, 3, 0, 7, 9, 13, 16, 4]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3864</v>
+        <v>4398</v>
       </c>
       <c r="E4" t="n">
-        <v>-1779</v>
+        <v>-2313</v>
       </c>
       <c r="F4" t="n">
-        <v>-13496.26845637584</v>
+        <v>-13481.93288590604</v>
       </c>
     </row>
     <row r="5">
@@ -535,17 +535,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[11, 4, 1, 5, 15, 16, 10, 2, 0, 12, 9, 14, 13, 3, 7, 6, 8]</t>
+          <t>[10, 12, 4, 7, 5, 6, 2, 0, 14, 3, 15, 11, 16, 9, 1, 13, 8]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3890</v>
+        <v>4517</v>
       </c>
       <c r="E5" t="n">
-        <v>-1805</v>
+        <v>-2432</v>
       </c>
       <c r="F5" t="n">
-        <v>-13495.57046979866</v>
+        <v>-13478.73825503356</v>
       </c>
     </row>
     <row r="6">
@@ -557,17 +557,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[7, 0, 9, 11, 16, 15, 8, 5, 6, 1, 10, 4, 2, 14, 3, 13, 12]</t>
+          <t>[10, 14, 1, 8, 6, 15, 4, 9, 12, 5, 13, 0, 16, 2, 3, 7, 11]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4154</v>
+        <v>4586</v>
       </c>
       <c r="E6" t="n">
-        <v>-2069</v>
+        <v>-2501</v>
       </c>
       <c r="F6" t="n">
-        <v>-13488.48322147651</v>
+        <v>-13476.88590604027</v>
       </c>
     </row>
     <row r="7">
@@ -579,17 +579,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[15, 9, 14, 5, 8, 12, 16, 3, 1, 6, 0, 7, 13, 4, 10, 2, 11]</t>
+          <t>[1, 9, 0, 2, 13, 11, 14, 10, 5, 12, 8, 16, 6, 4, 7, 3, 15]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4203</v>
+        <v>4596</v>
       </c>
       <c r="E7" t="n">
-        <v>-2118</v>
+        <v>-2511</v>
       </c>
       <c r="F7" t="n">
-        <v>-13487.1677852349</v>
+        <v>-13476.61744966443</v>
       </c>
     </row>
     <row r="8">
@@ -601,17 +601,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[8, 15, 7, 11, 16, 9, 12, 3, 5, 4, 6, 0, 2, 13, 14, 10, 1]</t>
+          <t>[10, 11, 1, 7, 8, 6, 15, 14, 12, 5, 3, 0, 2, 9, 13, 16, 4]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4205</v>
+        <v>4704</v>
       </c>
       <c r="E8" t="n">
-        <v>-2120</v>
+        <v>-2619</v>
       </c>
       <c r="F8" t="n">
-        <v>-13487.11409395973</v>
+        <v>-13473.71812080537</v>
       </c>
     </row>
     <row r="9">
@@ -623,17 +623,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[4, 11, 5, 16, 7, 9, 1, 0, 15, 12, 3, 6, 10, 13, 8, 2, 14]</t>
+          <t>[0, 15, 14, 10, 12, 2, 5, 8, 13, 7, 16, 4, 1, 3, 11, 9, 6]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4210</v>
+        <v>4720</v>
       </c>
       <c r="E9" t="n">
-        <v>-2125</v>
+        <v>-2635</v>
       </c>
       <c r="F9" t="n">
-        <v>-13486.97986577181</v>
+        <v>-13473.28859060403</v>
       </c>
     </row>
     <row r="10">
@@ -645,17 +645,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[7, 1, 5, 3, 12, 16, 14, 9, 8, 0, 13, 4, 10, 6, 2, 11, 15]</t>
+          <t>[10, 11, 3, 2, 6, 8, 15, 14, 12, 7, 1, 0, 5, 9, 13, 16, 4]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4313</v>
+        <v>4749</v>
       </c>
       <c r="E10" t="n">
-        <v>-2228</v>
+        <v>-2664</v>
       </c>
       <c r="F10" t="n">
-        <v>-13484.21476510067</v>
+        <v>-13472.5100671141</v>
       </c>
     </row>
     <row r="11">
@@ -667,17 +667,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[11, 2, 7, 12, 10, 0, 6, 16, 3, 5, 8, 15, 14, 9, 4, 13, 1]</t>
+          <t>[10, 8, 6, 15, 11, 13, 3, 7, 1, 5, 4, 2, 14, 0, 16, 9, 12]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4344</v>
+        <v>4763</v>
       </c>
       <c r="E11" t="n">
-        <v>-2259</v>
+        <v>-2678</v>
       </c>
       <c r="F11" t="n">
-        <v>-13483.38255033557</v>
+        <v>-13472.13422818792</v>
       </c>
     </row>
     <row r="12">
@@ -689,17 +689,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[13, 7, 10, 14, 9, 2, 6, 8, 11, 4, 0, 12, 15, 5, 1, 16, 3]</t>
+          <t>[5, 13, 4, 2, 11, 10, 16, 15, 3, 12, 1, 6, 7, 8, 9, 0, 14]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4351</v>
+        <v>5035</v>
       </c>
       <c r="E12" t="n">
-        <v>-2266</v>
+        <v>-2950</v>
       </c>
       <c r="F12" t="n">
-        <v>-13483.19463087248</v>
+        <v>-13464.8322147651</v>
       </c>
     </row>
     <row r="13">
@@ -711,17 +711,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[14, 3, 11, 10, 7, 12, 5, 0, 9, 1, 8, 4, 15, 16, 6, 2, 13]</t>
+          <t>[10, 11, 5, 6, 2, 8, 15, 14, 12, 7, 3, 1, 0, 9, 13, 16, 4]</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4372</v>
+        <v>5044</v>
       </c>
       <c r="E13" t="n">
-        <v>-2287</v>
+        <v>-2959</v>
       </c>
       <c r="F13" t="n">
-        <v>-13482.63087248322</v>
+        <v>-13464.59060402685</v>
       </c>
     </row>
     <row r="14">
@@ -733,17 +733,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[9, 12, 15, 8, 11, 10, 7, 6, 0, 1, 16, 4, 3, 13, 2, 5, 14]</t>
+          <t>[12, 14, 6, 9, 13, 16, 1, 5, 2, 3, 4, 0, 8, 10, 11, 15, 7]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4381</v>
+        <v>5046</v>
       </c>
       <c r="E14" t="n">
-        <v>-2296</v>
+        <v>-2961</v>
       </c>
       <c r="F14" t="n">
-        <v>-13482.38926174497</v>
+        <v>-13464.53691275168</v>
       </c>
     </row>
     <row r="15">
@@ -755,17 +755,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[9, 7, 14, 16, 2, 11, 5, 4, 0, 12, 15, 3, 6, 13, 8, 1, 10]</t>
+          <t>[13, 9, 16, 15, 6, 14, 8, 3, 11, 5, 7, 10, 0, 2, 1, 12, 4]</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4447</v>
+        <v>5168</v>
       </c>
       <c r="E15" t="n">
-        <v>-2362</v>
+        <v>-3083</v>
       </c>
       <c r="F15" t="n">
-        <v>-13480.61744966443</v>
+        <v>-13461.26174496644</v>
       </c>
     </row>
     <row r="16">
@@ -777,17 +777,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[3, 16, 7, 5, 13, 10, 8, 6, 9, 4, 11, 14, 2, 12, 0, 1, 15]</t>
+          <t>[11, 1, 3, 2, 6, 8, 7, 14, 10, 0, 12, 16, 9, 15, 4, 13, 5]</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4465</v>
+        <v>5267</v>
       </c>
       <c r="E16" t="n">
-        <v>-2380</v>
+        <v>-3182</v>
       </c>
       <c r="F16" t="n">
-        <v>-13480.13422818792</v>
+        <v>-13458.60402684564</v>
       </c>
     </row>
     <row r="17">
@@ -799,17 +799,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[2, 0, 14, 13, 15, 11, 7, 1, 3, 16, 12, 5, 4, 10, 8, 6, 9]</t>
+          <t>[1, 11, 13, 6, 8, 16, 10, 14, 7, 5, 9, 0, 2, 15, 12, 4, 3]</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4510</v>
+        <v>5497</v>
       </c>
       <c r="E17" t="n">
-        <v>-2425</v>
+        <v>-3412</v>
       </c>
       <c r="F17" t="n">
-        <v>-13478.92617449664</v>
+        <v>-13452.42953020134</v>
       </c>
     </row>
     <row r="18">
@@ -821,17 +821,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[3, 8, 16, 11, 4, 13, 15, 1, 9, 2, 12, 10, 7, 14, 0, 5, 6]</t>
+          <t>[10, 1, 3, 2, 6, 8, 15, 14, 11, 7, 16, 5, 9, 13, 12, 4]</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4549</v>
+        <v>4365</v>
       </c>
       <c r="E18" t="n">
-        <v>-2464</v>
+        <v>-2280</v>
       </c>
       <c r="F18" t="n">
-        <v>-13477.87919463087</v>
+        <v>-12691.24832214765</v>
       </c>
     </row>
     <row r="19">
@@ -843,17 +843,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[0, 10, 7, 12, 6, 5, 3, 11, 4, 1, 8, 9, 16, 2, 15, 13, 14]</t>
+          <t>[10, 11, 3, 8, 2, 6, 15, 14, 5, 1, 16, 7, 9, 13, 12, 4]</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4594</v>
+        <v>4688</v>
       </c>
       <c r="E19" t="n">
-        <v>-2509</v>
+        <v>-2603</v>
       </c>
       <c r="F19" t="n">
-        <v>-13476.6711409396</v>
+        <v>-12677.44966442953</v>
       </c>
     </row>
     <row r="20">
@@ -865,17 +865,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[5, 6, 1, 8, 7, 15, 2, 14, 3, 9, 10, 13, 4, 11, 16, 12, 0]</t>
+          <t>[10, 11, 3, 2, 8, 6, 15, 14, 7, 1, 16, 5, 9, 13, 12, 4]</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4606</v>
+        <v>4818</v>
       </c>
       <c r="E20" t="n">
-        <v>-2521</v>
+        <v>-2733</v>
       </c>
       <c r="F20" t="n">
-        <v>-13476.34899328859</v>
+        <v>-12675.08724832214</v>
       </c>
     </row>
     <row r="21">
@@ -887,435 +887,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[12, 5, 4, 11, 16, 9, 2, 13, 6, 7, 10, 14, 0, 15, 1, 3, 8]</t>
+          <t>[10, 11, 3, 2, 8, 15, 1, 4, 7, 16, 5, 9, 13, 12]</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4651</v>
+        <v>3957</v>
       </c>
       <c r="E21" t="n">
-        <v>-2566</v>
+        <v>-1872</v>
       </c>
       <c r="F21" t="n">
-        <v>-13475.14093959731</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>[16, 7, 11, 5, 10, 1, 12, 4, 0, 2, 13, 14, 6, 3, 9, 8, 15]</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>4675</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-2590</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-13474.4966442953</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>[11, 8, 7, 13, 16, 10, 0, 14, 2, 15, 5, 1, 6, 3, 4, 9, 12]</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>4705</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-2620</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-13473.69127516779</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>[7, 15, 16, 10, 1, 13, 9, 11, 0, 4, 5, 14, 12, 3, 8, 2, 6]</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>4712</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-2627</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-13473.5033557047</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>[16, 11, 9, 14, 5, 15, 1, 4, 12, 10, 3, 0, 2, 8, 6, 7, 13]</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>4720</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-2635</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-13473.28859060403</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>[1, 7, 0, 3, 4, 13, 16, 11, 2, 9, 5, 8, 6, 15, 12, 10, 14]</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>4801</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-2716</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-13471.11409395973</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>[12, 13, 3, 11, 5, 14, 10, 0, 4, 8, 15, 7, 1, 6, 9, 2, 16]</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>4818</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-2733</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-13470.65771812081</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>[15, 4, 8, 16, 14, 7, 9, 2, 11, 10, 12, 1, 13, 5, 6, 3, 0]</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>4858</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-2773</v>
-      </c>
-      <c r="F28" t="n">
-        <v>-13469.58389261745</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>27</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>[11, 10, 2, 1, 15, 13, 12, 14, 5, 0, 3, 16, 4, 7, 9, 8, 6]</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>4933</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-2848</v>
-      </c>
-      <c r="F29" t="n">
-        <v>-13467.57046979866</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>28</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>[13, 12, 8, 2, 1, 16, 0, 7, 15, 4, 10, 5, 11, 9, 6, 14, 3]</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>4994</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-2909</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-13465.93288590604</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>29</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>[5, 1, 13, 3, 11, 4, 2, 7, 14, 12, 16, 6, 8, 0, 10, 15, 9]</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>5002</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-2917</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-13465.71812080537</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>30</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>[12, 5, 15, 1, 7, 8, 0, 2, 14, 16, 13, 11, 9, 6, 3, 10, 4]</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>5010</v>
-      </c>
-      <c r="E32" t="n">
-        <v>-2925</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-13465.5033557047</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>31</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>[1, 2, 15, 12, 9, 14, 11, 3, 10, 7, 16, 0, 4, 6, 8, 13, 5]</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>5163</v>
-      </c>
-      <c r="E33" t="n">
-        <v>-3078</v>
-      </c>
-      <c r="F33" t="n">
-        <v>-13461.39597315436</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>32</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>[3, 9, 15, 2, 0, 8, 10, 11, 6, 14, 1, 13, 16, 5, 4, 12, 7]</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>5243</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-3158</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-13459.24832214765</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>33</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>[9, 3, 8, 14, 0, 11, 2, 4, 16, 15, 6, 7, 1, 5, 13, 10, 12]</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>5259</v>
-      </c>
-      <c r="E35" t="n">
-        <v>-3174</v>
-      </c>
-      <c r="F35" t="n">
-        <v>-13458.81879194631</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>34</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>[3, 14, 16, 4, 12, 15, 5, 6, 13, 7, 10, 0, 11, 2, 1, 8, 9]</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>5289</v>
-      </c>
-      <c r="E36" t="n">
-        <v>-3204</v>
-      </c>
-      <c r="F36" t="n">
-        <v>-13458.01342281879</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>35</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>[16, 12, 9, 8, 10, 14, 15, 1, 7, 11, 4, 3, 2, 0, 5, 6, 13]</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>5301</v>
-      </c>
-      <c r="E37" t="n">
-        <v>-3216</v>
-      </c>
-      <c r="F37" t="n">
-        <v>-13457.69127516779</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>36</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>[11, 13, 8, 4, 2, 12, 5, 16, 7, 9, 3, 1, 15, 10, 0, 6, 14]</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>5483</v>
-      </c>
-      <c r="E38" t="n">
-        <v>-3398</v>
-      </c>
-      <c r="F38" t="n">
-        <v>-13452.80536912752</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>37</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>[11, 10, 0, 4, 16, 8, 2, 15, 9, 7, 5, 3, 1, 12, 14, 13, 6]</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>5752</v>
-      </c>
-      <c r="E39" t="n">
-        <v>-3667</v>
-      </c>
-      <c r="F39" t="n">
-        <v>-13445.58389261745</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>38</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>[11, 16, 7, 1, 2, 12, 4, 0, 7, 6, 14, 15, 13, 9, 10, 5]</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>4512</v>
-      </c>
-      <c r="E40" t="n">
-        <v>-2427</v>
-      </c>
-      <c r="F40" t="n">
-        <v>-6290.335570469798</v>
+        <v>-11107.86577181208</v>
       </c>
     </row>
   </sheetData>
